--- a/GSE107451/processed_data/DESeq_result/DESeq_w1118_female_30_vs_3_UP0.05.xlsx
+++ b/GSE107451/processed_data/DESeq_result/DESeq_w1118_female_30_vs_3_UP0.05.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -38,10 +38,448 @@
     <t xml:space="preserve">sig</t>
   </si>
   <si>
+    <t xml:space="preserve">Trissin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dh31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCAP-R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cib</t>
+  </si>
+  <si>
     <t xml:space="preserve">vir-1</t>
   </si>
   <si>
-    <t xml:space="preserve">up</t>
+    <t xml:space="preserve">CG5955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsf1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Npc2b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP1029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG30197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dscam4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG44325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG1146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImpL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">betaTub60D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galphai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eEF1alpha1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG18067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR43651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG12065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idgf4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR42491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xrp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG1537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sytbeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RpL22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsp42Ea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR43334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG4577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lim1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pre-rRNA:CR45845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snRNA:7SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MtnA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bnb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG43373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG30053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG4829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lmpt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CrebA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TwdlG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR45139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG43693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG34417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG32521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HLH4C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pabp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foxo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG15209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mfas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG17739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ect4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG32032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pdgy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fhos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnxB11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG14073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mgl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lsd-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dh44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG1402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG30285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JhI-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mt:ATPase8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubr1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zfh1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rac2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG8839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnxB9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIG-T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sesn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG1572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG10365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR17025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG9246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ogre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsp42Ed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG11791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vha68-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gfat2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wun2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ced-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG31706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GstE6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pkn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toll-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG13631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RhoGAP18B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spn27A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pasha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fkbp14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lbk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ncm</t>
   </si>
 </sst>
 </file>
@@ -404,24 +842,3820 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>1.51878131897022</v>
+        <v>220.177234220927</v>
       </c>
       <c r="C2" t="n">
-        <v>1.09538634329905</v>
+        <v>9.61731809711969</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0700593087548278</v>
+        <v>0.77197570853478</v>
       </c>
       <c r="E2" t="n">
-        <v>15.6351291893609</v>
+        <v>12.4580579295345</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000419622975096486</v>
+        <v>0.0000000000000000000000000000000000126411597303971</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000439250501350999</v>
+        <v>0.000000000000000000000000000000071409911317013</v>
       </c>
       <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>76.6557296818359</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.6540067166179</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.626972440224867</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.42298451738759</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.000000000000114510167100809</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.000000000215622644650824</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
+        <v>54.4038531686586</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.7627563580579</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.36853662610826</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.13371945756429</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000000000000976923478922613</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00000000137966018310846</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1678.85617876301</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.49921085738944</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.354286503206924</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.05420848597711</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.00000000000173585950805888</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.00000000196117407220492</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>81.6074338236452</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.17906607918166</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.529669758334264</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.00197770244496</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.00000000194928475440209</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.00000137643869720217</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="n">
+        <v>30.6393312097957</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.92693796556045</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.99836279700238</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.93665747898088</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.00000000290891501000971</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.00000182582898794943</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>113.07616909582</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.15771148681687</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.533536673809946</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.91845254847785</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.00000000324984735759918</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.00000183583877230778</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>331.646181249774</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.92883653295348</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.327838271278988</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.88350019486302</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.00000000401679622579378</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.00000206280744359173</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>658.56810503387</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.71248151392917</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.496513156823768</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.46306069970254</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0000000467994485244618</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0000203361603626681</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n">
+        <v>33.7517702328354</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.66572483593938</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.864941527523787</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.3942661873303</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.000000068804155404822</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0000258435037526226</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>319.265189833679</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.62282394559782</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.487557307577669</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.37951929923643</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.000000074684988555285</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0000258435037526226</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n">
+        <v>31.284570177222</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.29623778187562</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.815960716040735</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.26525076197558</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.000000139998132462798</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0000416236552780183</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="n">
+        <v>129.529483377348</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.27207669475013</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.436583956069515</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.20421482091376</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.000000194818542272888</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0000550264972649772</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="n">
+        <v>229.704790653398</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.25044675234433</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.456369156501996</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.93119817647994</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.000000817267687865563</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.000209852053125117</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="n">
+        <v>632.105723073145</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.42602903475994</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.290664587190955</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.90609829199145</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.000000929059794152569</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.000218677449048661</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="n">
+        <v>318.344027328429</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.56096089514133</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.523928432664297</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.88799754981468</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.00000101866798031884</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.000230178216832846</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>182.837295816086</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.88213005803942</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.386476472057723</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4.86997319142964</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.00000111613390621938</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.00024250155523974</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="n">
+        <v>570.657278825624</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.92642359744568</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.40019461650201</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.81371692174176</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.00000148148624962516</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.000309959845338241</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="n">
+        <v>267.982377790047</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.7501266108557</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.37045651854941</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.72424298999688</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.00000230974114131912</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.000449921645079715</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="n">
+        <v>123.535374959702</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.58829296401472</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.549314791498345</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.71185739774953</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.00000245469132977586</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.000462218377396795</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="n">
+        <v>46.1562181672652</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.53857620827903</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.75643510887212</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.67796400084498</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.00000289737396147003</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.000527976306720781</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n">
+        <v>36.7081100265092</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.52954189240598</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.764153185237853</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.61889312325167</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.00000385792493974323</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.000681044312019047</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="n">
+        <v>29.4817248503389</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.81844281511788</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.04842297702209</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.59589585570135</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.00000430893891403388</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.000737611997738709</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2895.73834133507</v>
+      </c>
+      <c r="C25" t="n">
+        <v>9.05177907644813</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.00294352580565</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.5192382909584</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.00000620625118285506</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.000973864248109673</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2737.18529702236</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.07560396465866</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.242774831432433</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.43045911436668</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.00000940326749724389</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.00136202713056233</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="n">
+        <v>47.1541905137133</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.91402719213609</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.678478119944397</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.29494644923096</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0000174735509659464</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.00224336566833253</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1232.93252812106</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.53237705829447</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.36629290534062</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.18347457991165</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0000287087204455006</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.00345054386801347</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="n">
+        <v>29.3338553709295</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.52992455710545</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.11239863266176</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.07221334519822</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0000465684943206155</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.00503362620952973</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="n">
+        <v>45.0902313287121</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.97527100729419</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.738219852922528</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.03033187947389</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0000556981549302509</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.00569445143630014</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="n">
+        <v>81.2786844895396</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.39038961870134</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.596048471934293</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.01039467636594</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0000606173361216102</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.00590391951294786</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="n">
+        <v>35.699640553429</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.12569651117746</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.793431697419385</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.93946513776006</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0000816634672621896</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.00727042077298863</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1014.36213679669</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.6129660299204</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.417034249011115</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3.86770639041065</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.000109863832544766</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.00912677632419677</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="n">
+        <v>185.021740654317</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.87447592811632</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.492123650448713</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3.80895314908599</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.000139556395370273</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0111239337944609</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="n">
+        <v>28.0416713195894</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3.99627438140487</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.05266015217079</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3.79635761186911</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.000146837637652742</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0115206363208381</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="n">
+        <v>57.6543192407748</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.46270720762596</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.651994709332631</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.77718894398199</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.000158608406937728</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0122736834354962</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="n">
+        <v>39.7606001904639</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2.96100695066796</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.800965389864204</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.69679762463889</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.000218336255833337</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0154172688650315</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="n">
+        <v>604.228950630191</v>
+      </c>
+      <c r="C38" t="n">
+        <v>7.08565968816863</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.92491431950857</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3.68102601573331</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.000232297298800953</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0160030175722754</v>
+      </c>
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="n">
+        <v>50.7925419304085</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3.0733044565422</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.834577473400938</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.68246754135162</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.000230987285418628</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0160030175722754</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="n">
+        <v>346.232016175743</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.24853933613761</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.344642089554562</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.62271287802168</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.000291529363652478</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0189293031640557</v>
+      </c>
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="n">
+        <v>299.237713395988</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.21736484181707</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.338610653776284</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3.59517584057285</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.000324172545901679</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0205218877950269</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="n">
+        <v>59.4139208322854</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.42365263511702</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.680651560199558</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3.56078319192634</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.000369750294058513</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0220958778158141</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="n">
+        <v>81.0450720010828</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2.07795161728445</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.583779493318037</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3.55948031931366</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.000371589377323835</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0220958778158141</v>
+      </c>
+      <c r="H43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="n">
+        <v>340.56510995765</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.5763049210678</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.442386740258118</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.5631830197896</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.000366385045187974</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0220958778158141</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="n">
+        <v>36.0229208225027</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.51130731322895</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.71954705716022</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3.49012241553753</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.00048279933511328</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0272733344405492</v>
+      </c>
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1280.90284252281</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.12058014531814</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.322902532180895</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3.47033557696097</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.000519808487890157</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0290732489910049</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="n">
+        <v>28.3611684523342</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4.40999248940894</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.2750551742818</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.45866796853944</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.000542853666114271</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0296175947601984</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="n">
+        <v>850.662874094615</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.02676952190185</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.296958450894404</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3.45762014453316</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.000544969184556181</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0296175947601984</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="n">
+        <v>91.2963251923265</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2.35727070948151</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.696275533267974</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.38554293070969</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.000710375968267305</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0368149740473736</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="n">
+        <v>243.100065663367</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.65808724648229</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.498607553367251</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3.32543547582607</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.000882805311653383</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0422624339451691</v>
+      </c>
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2025.58658474868</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.00369145892933</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.306514851778943</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3.27452798161046</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.00105838656643106</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0485633127565568</v>
+      </c>
+      <c r="H51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="n">
+        <v>662.333618461452</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.01029279754925</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.309315676088224</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.26621919175247</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.00108993847529484</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0492564995755244</v>
+      </c>
+      <c r="H52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="n">
+        <v>344.170867388268</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.53646694901242</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.474665672796144</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3.23694557468514</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.00120816451294037</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0525486776000111</v>
+      </c>
+      <c r="H53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="n">
+        <v>110.383306701938</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2.43978438288295</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.758201714651886</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3.21785658847149</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.00129152375982062</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0540393724122003</v>
+      </c>
+      <c r="H54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="n">
+        <v>148.331887097206</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.36430986518929</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.424811317019167</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.21156666626123</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.00132013336747807</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0540393724122003</v>
+      </c>
+      <c r="H55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="n">
+        <v>953.200890376894</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.60619543821288</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.509719336896902</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.15113695311456</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.00162636210973935</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0642469899155077</v>
+      </c>
+      <c r="H56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="n">
+        <v>210.195165434006</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.36994189835409</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.438113800877197</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3.12690879769406</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.00176654718985849</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0674271964561526</v>
+      </c>
+      <c r="H57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="n">
+        <v>88.1530442049151</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.06594218425919</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.66603478575751</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.10185327919398</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.00192313249436278</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0715285209886605</v>
+      </c>
+      <c r="H58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="n">
+        <v>131.771524939776</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.51573876526945</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.488692590251852</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3.10162010946043</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.00192464775894431</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0715285209886605</v>
+      </c>
+      <c r="H59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="n">
+        <v>70.3693973205912</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3.39923776651137</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.09843357047717</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3.0946229775504</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.00197063220709363</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0717085434604626</v>
+      </c>
+      <c r="H60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="n">
+        <v>117.412852045246</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.46502264791887</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.80287940639551</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3.0702277680598</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.00213895582260138</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0759237532172632</v>
+      </c>
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="n">
+        <v>111.817516490487</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.39185876661655</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.453649576956144</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.06813637071043</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0021539829731887</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.0759237532172632</v>
+      </c>
+      <c r="H62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="n">
+        <v>80.0689634877652</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.68855764091639</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.557118372601815</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3.03087768050192</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.00243844010611927</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0824835219129805</v>
+      </c>
+      <c r="H63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="n">
+        <v>35.0131839424552</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2.25906810039467</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.746631865792548</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3.02567865623667</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.00248075798910867</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.083415487383779</v>
+      </c>
+      <c r="H64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="n">
+        <v>453.385907298846</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.75906049762424</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.581886864893004</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.02302836471088</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.00250258785170194</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.083651590380262</v>
+      </c>
+      <c r="H65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="n">
+        <v>32.421689379849</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2.26699980344464</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.753585504036562</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.00828478162267</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.00262726815591305</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0857886578771839</v>
+      </c>
+      <c r="H66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="n">
+        <v>102.833384123008</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.9250817098688</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.639336044689304</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3.01106394025434</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.00260334026238614</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0857886578771839</v>
+      </c>
+      <c r="H67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="n">
+        <v>50.2147589081727</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.26975890590469</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.761434105009707</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2.98089997672978</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.00287402647733708</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0907004221814366</v>
+      </c>
+      <c r="H68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="n">
+        <v>51.3800661076922</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3.2489094066034</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.09307684372391</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.97226075664999</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.00295615499755765</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.091754503193424</v>
+      </c>
+      <c r="H69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="n">
+        <v>340.247771479426</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.24680939298954</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.420589513170584</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2.96443290654242</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.00303241360653433</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.093607128214822</v>
+      </c>
+      <c r="H70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="n">
+        <v>34.5898744367489</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.42354842936082</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.15669654459712</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2.95976368681316</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.00307875102481238</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0945210029302452</v>
+      </c>
+      <c r="H71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="n">
+        <v>270.834540330314</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.03675935029594</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.352833506154109</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2.93838122574194</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0032993104992026</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0986127249206112</v>
+      </c>
+      <c r="H72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="n">
+        <v>184.056399418165</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.16400612786067</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.400715750408753</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2.90481750885337</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.00367467283706294</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.106500184621358</v>
+      </c>
+      <c r="H73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="n">
+        <v>61.9823250372133</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2.11966663044395</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.734589784576395</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2.88551062776659</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.00390779267531615</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.111490509206368</v>
+      </c>
+      <c r="H74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="n">
+        <v>108.775870771611</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.4553669173178</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.504920972484965</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2.88236574954537</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.00394701289302359</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.112043597149197</v>
+      </c>
+      <c r="H75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="n">
+        <v>377.163663558935</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.03509108828728</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.363234300225352</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2.84965127920218</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.00437671864583308</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.120019823448112</v>
+      </c>
+      <c r="H76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="n">
+        <v>42.2968474931596</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.22698201724616</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.787355650644238</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2.82843212647801</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0046776618874284</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.125877542595859</v>
+      </c>
+      <c r="H77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="n">
+        <v>793.729128347344</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.55204837765287</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.550029912639229</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2.82175267560562</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.00477619958054165</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.126670194509295</v>
+      </c>
+      <c r="H78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="n">
+        <v>106.909315946623</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2.19695560695004</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.779026854543656</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2.82012820756607</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.00480044657344687</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.126718330342997</v>
+      </c>
+      <c r="H79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="n">
+        <v>39.2051389568375</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.96955190433705</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.705119041479569</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2.79321900058789</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.00521863476222601</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.136481795239883</v>
+      </c>
+      <c r="H80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="n">
+        <v>34.3819013430653</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2.34490241830938</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.842188062128376</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.78429785905935</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.00536437466170722</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.139646785548314</v>
+      </c>
+      <c r="H81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="n">
+        <v>37.7411264303689</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2.46836373480544</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.891688133462364</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2.76819175020413</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.00563682802289191</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.14058140204248</v>
+      </c>
+      <c r="H82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" t="n">
+        <v>126.479554863586</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2.24220847698038</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.809091708257632</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2.77126616685882</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.00558387620099283</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.14058140204248</v>
+      </c>
+      <c r="H83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="n">
+        <v>42.9707168377113</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.19105552093464</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.801996710949919</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.73200063169768</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.00629510202802077</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.152598576920678</v>
+      </c>
+      <c r="H84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" t="n">
+        <v>623.478305795737</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.51887928064028</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.556235454309748</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2.73064089833164</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.00632113064249224</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.152598576920678</v>
+      </c>
+      <c r="H85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="n">
+        <v>105.949253941131</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.75037278136007</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.648497753624555</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2.69911926691644</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.00695232557036135</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.164325050824148</v>
+      </c>
+      <c r="H86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="n">
+        <v>89.4436303215028</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.94681010769517</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.734212162402905</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2.65156341366467</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.00801200662444629</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.182186627561934</v>
+      </c>
+      <c r="H87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" t="n">
+        <v>72.6953401049628</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.48848038886155</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.565216930903426</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2.63346744847577</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0084517936821583</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.186500712931688</v>
+      </c>
+      <c r="H88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" t="n">
+        <v>258.987726233602</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.1369075276617</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.43336591294085</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2.62343551652821</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.00870479211787782</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.189983102146275</v>
+      </c>
+      <c r="H89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" t="n">
+        <v>54.4115861257542</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.30387851636966</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.886271664310968</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2.59951729153026</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.0093354975077845</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.197513952889418</v>
+      </c>
+      <c r="H90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" t="n">
+        <v>66.0785327891902</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.51692028733241</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.583882747231317</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.59798785719464</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.00937718099112948</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.197655579921233</v>
+      </c>
+      <c r="H91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" t="n">
+        <v>34.3796596838233</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.9525671788069</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.754961639562001</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2.58631310054336</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.00970087650878764</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.201347761786677</v>
+      </c>
+      <c r="H92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" t="n">
+        <v>69.9508839533821</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.46193015157856</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.565944175411362</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2.58317024027316</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.00978970032480097</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.201347761786677</v>
+      </c>
+      <c r="H93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" t="n">
+        <v>160.130501977035</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.11005308350269</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.430212915701287</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.58024118521221</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.00987313330056816</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.201347761786677</v>
+      </c>
+      <c r="H94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" t="n">
+        <v>332.197584160149</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.08058406764406</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.420111985851755</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2.57213339308383</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.0101073939733008</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.204647557545434</v>
+      </c>
+      <c r="H95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" t="n">
+        <v>68.4394891396156</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2.15932873922454</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.842992891370997</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.56150290391267</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.010422036999505</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.208773358192211</v>
+      </c>
+      <c r="H96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" t="n">
+        <v>107.849562008655</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.92633073718598</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.75176382668463</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2.56241477550381</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.010394709555479</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.208773358192211</v>
+      </c>
+      <c r="H97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" t="n">
+        <v>87.7893722608543</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.83049806106552</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.715112025832033</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2.55973609021011</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.010475167773113</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.209096193464012</v>
+      </c>
+      <c r="H98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" t="n">
+        <v>135.86737532771</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.14810568538412</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.452517530834179</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2.53715183866508</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.0111758470080062</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.219209582459121</v>
+      </c>
+      <c r="H99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" t="n">
+        <v>287.935754717685</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.07603211759558</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.425364120084868</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2.52967297143184</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.0114168884043365</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.221628874900676</v>
+      </c>
+      <c r="H100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" t="n">
+        <v>86.6758973749967</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.8575211683231</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.736236602464945</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.5229948661939</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.0116360099751117</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.22471679852679</v>
+      </c>
+      <c r="H101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" t="n">
+        <v>155.999399393187</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.04837049272834</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.415623257680097</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.52240574451987</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.0116555181392015</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.22471679852679</v>
+      </c>
+      <c r="H102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" t="n">
+        <v>124.528579526485</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.59313822898773</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.633297540418008</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.51562358498373</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.0118822010783911</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.226253137072938</v>
+      </c>
+      <c r="H103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" t="n">
+        <v>58.1680683319044</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.46419802227936</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.584301150921095</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.50589618037068</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.0122141477615251</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.22788484612673</v>
+      </c>
+      <c r="H104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" t="n">
+        <v>92.1592329382417</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.42440839378075</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.568746994299485</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2.50446755421568</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.0122635852757171</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.22788484612673</v>
+      </c>
+      <c r="H105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" t="n">
+        <v>215.186362847925</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.27854875098436</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.509994968015246</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2.50698307075481</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.0121766543528624</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.22788484612673</v>
+      </c>
+      <c r="H106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" t="n">
+        <v>101.720841907543</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.38628396958916</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.554614846730131</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.49954356209962</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.0124353409452394</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.229566147057704</v>
+      </c>
+      <c r="H107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" t="n">
+        <v>222.70603897223</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.02323896077467</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.409281703725516</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2.50008478625007</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.0124163586488104</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.229566147057704</v>
+      </c>
+      <c r="H108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" t="n">
+        <v>90.040812375524</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.78217484129836</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.713688627414775</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2.4971321845971</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.0125202276339885</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.230094583271918</v>
+      </c>
+      <c r="H109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" t="n">
+        <v>197.057463285015</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.01918947609066</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.408260573106839</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.4964190598536</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.0125454295712074</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.230094583271918</v>
+      </c>
+      <c r="H110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" t="n">
+        <v>92.2071048786894</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.84711547677154</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.745071784255706</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2.47911075926292</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.0131710399391957</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.237776209280909</v>
+      </c>
+      <c r="H111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" t="n">
+        <v>141.689207360346</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.13230289294398</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.456893198245005</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2.47826603086525</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.0132022667133625</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.237776209280909</v>
+      </c>
+      <c r="H112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" t="n">
+        <v>193.235423959191</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.12475497291359</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.454193043443962</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2.47638088946724</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0132721902110451</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.238014611118075</v>
+      </c>
+      <c r="H113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" t="n">
+        <v>44.8895311916079</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.64834466725983</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.666793542300352</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2.47204653718339</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.0134342026910726</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.24015762975275</v>
+      </c>
+      <c r="H114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" t="n">
+        <v>69.0346161330276</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.56515964981159</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.633989533164899</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2.46874682930214</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.0135587107319002</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.241038118100613</v>
+      </c>
+      <c r="H115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" t="n">
+        <v>52.952735705827</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.49883018165364</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.60718730651555</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2.46848075638296</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.0135687947523446</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.241038118100613</v>
+      </c>
+      <c r="H116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" t="n">
+        <v>169.370759951467</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.62967062332603</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.663554843738911</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2.45596974945339</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.0140504984338763</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.247262509822328</v>
+      </c>
+      <c r="H117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>125</v>
+      </c>
+      <c r="B118" t="n">
+        <v>144.146448125993</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.32052748350535</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.548684514864761</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2.40671542157669</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.0160967075062103</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.27142975050348</v>
+      </c>
+      <c r="H118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" t="n">
+        <v>113.193396080565</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.25819982336945</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.530296155672812</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2.37263613908932</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0176616530915307</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.286697351477175</v>
+      </c>
+      <c r="H119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" t="n">
+        <v>42.2406866318162</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2.15072417613353</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.909156975925766</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2.36562467547864</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.0179996816551922</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.289568563882246</v>
+      </c>
+      <c r="H120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" t="n">
+        <v>49.190255524751</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.46731460076004</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.629568782979364</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2.33066606926751</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.0197709746841969</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.309054745587703</v>
+      </c>
+      <c r="H121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122" t="n">
+        <v>35.8845485000172</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2.43830561454543</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.05163594219659</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2.31858337729734</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.0204176372847224</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.313421828862491</v>
+      </c>
+      <c r="H122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" t="n">
+        <v>39.2593529393068</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.87742621197201</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.811331024315039</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2.31400766851855</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.0206673014986623</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.315539422070117</v>
+      </c>
+      <c r="H123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" t="n">
+        <v>140.420803964628</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.15314367617192</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.506583148855709</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.2763166891293</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.022827061945878</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.332345548794496</v>
+      </c>
+      <c r="H124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" t="n">
+        <v>121.638080952588</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.627883933159</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.717157816074475</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2.26991032750586</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.0232130243791882</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.33281820994425</v>
+      </c>
+      <c r="H125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>133</v>
+      </c>
+      <c r="B126" t="n">
+        <v>31.386904437212</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.7312203759301</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.774785696337683</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2.23445061532933</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.0254534384974723</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.351556171325724</v>
+      </c>
+      <c r="H126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" t="n">
+        <v>157.010499425838</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.44076423534716</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.650468982891575</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2.21496223992484</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.0267626564194644</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.36450659490283</v>
+      </c>
+      <c r="H127" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>135</v>
+      </c>
+      <c r="B128" t="n">
+        <v>82.9097998002038</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2.15755079821711</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.976958633547757</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2.20843618565723</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.0272138816611225</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.36954619592231</v>
+      </c>
+      <c r="H128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" t="n">
+        <v>46.3870304495656</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.61177741062073</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.732323443765515</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2.20090920800402</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.0277424519412433</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.37480566023568</v>
+      </c>
+      <c r="H129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>137</v>
+      </c>
+      <c r="B130" t="n">
+        <v>93.0538818810287</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.37175628086523</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.624935584199941</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.19503628141353</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.0281609952690794</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.376970289751255</v>
+      </c>
+      <c r="H130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>138</v>
+      </c>
+      <c r="B131" t="n">
+        <v>56.2732878477289</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.72559658019283</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.796687956724586</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2.165962928933</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.0303140198575396</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.398384600807487</v>
+      </c>
+      <c r="H131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>139</v>
+      </c>
+      <c r="B132" t="n">
+        <v>98.2788631678688</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.038484968279</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.480793288361365</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.15994065104019</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.0307772642856487</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.398763224655114</v>
+      </c>
+      <c r="H132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>140</v>
+      </c>
+      <c r="B133" t="n">
+        <v>39.8149925130301</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.72154458693866</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.799746062073532</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2.15261402159973</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.031349025640669</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.40524175250375</v>
+      </c>
+      <c r="H133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>141</v>
+      </c>
+      <c r="B134" t="n">
+        <v>48.5486913661459</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.95626348386024</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.912018052019907</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2.1449832923017</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.0319541828607631</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.41024813404648</v>
+      </c>
+      <c r="H134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>142</v>
+      </c>
+      <c r="B135" t="n">
+        <v>98.3553879671379</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.68857885762755</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.788752152644224</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.14082313685831</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.032288303413058</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.413597791338696</v>
+      </c>
+      <c r="H135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>143</v>
+      </c>
+      <c r="B136" t="n">
+        <v>342.893454322681</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.32454148300131</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.621725532104452</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.13042800175493</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.0331362940471231</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.421592173586033</v>
+      </c>
+      <c r="H136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>144</v>
+      </c>
+      <c r="B137" t="n">
+        <v>64.7613023009359</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.64887408756969</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.787340044373754</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.09423374227231</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.0362391633528295</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.445032682130725</v>
+      </c>
+      <c r="H137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>145</v>
+      </c>
+      <c r="B138" t="n">
+        <v>57.1406761832411</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.53153127135466</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.738547693667384</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.07370666036418</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.0381065622885381</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.457861068780932</v>
+      </c>
+      <c r="H138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>146</v>
+      </c>
+      <c r="B139" t="n">
+        <v>149.802751345244</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.04062713398137</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.50289086748743</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2.0692901805527</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.0385188645415253</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.460791032113164</v>
+      </c>
+      <c r="H139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>147</v>
+      </c>
+      <c r="B140" t="n">
+        <v>103.118960821929</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.20906281525646</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.586667902824344</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2.06089818351366</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.039312754637815</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.466465996789471</v>
+      </c>
+      <c r="H140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>148</v>
+      </c>
+      <c r="B141" t="n">
+        <v>61.0509126548061</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.69313480483828</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.822586790027652</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2.05830536712285</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.0395608293085425</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.467215924970327</v>
+      </c>
+      <c r="H141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>149</v>
+      </c>
+      <c r="B142" t="n">
+        <v>184.051166792184</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.23749476099022</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.602319856538791</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2.05454750919459</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.0399227300840887</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.468863830031221</v>
+      </c>
+      <c r="H142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>150</v>
+      </c>
+      <c r="B143" t="n">
+        <v>34.9929123530422</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2.16023489622965</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.05584313416544</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2.04598090978462</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.0407582489348114</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.474833586728177</v>
+      </c>
+      <c r="H143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>151</v>
+      </c>
+      <c r="B144" t="n">
+        <v>32.2017591893089</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2.19403093223791</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.07442276576567</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2.04205551310556</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.0411460250511014</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.476251931913552</v>
+      </c>
+      <c r="H144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>152</v>
+      </c>
+      <c r="B145" t="n">
+        <v>46.4938562865755</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.43451892795187</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.70950515134139</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2.02185836880786</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.0431909856948547</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.488949655691852</v>
+      </c>
+      <c r="H145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>153</v>
+      </c>
+      <c r="B146" t="n">
+        <v>44.8032668629662</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.37821406296694</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.686722535491462</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2.00694456893074</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.044755565506494</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.496707641544567</v>
+      </c>
+      <c r="H146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>154</v>
+      </c>
+      <c r="B147" t="n">
+        <v>240.785282061307</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.06779881885293</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.537731830984484</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.98574597471382</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.047061537302632</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.513225143286811</v>
+      </c>
+      <c r="H147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>155</v>
+      </c>
+      <c r="B148" t="n">
+        <v>74.9939303102381</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.05527746787584</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.531830965443003</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.98423472201702</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.0472296794558977</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.513923444434171</v>
+      </c>
+      <c r="H148" t="s">
         <v>9</v>
       </c>
     </row>
